--- a/Python_WaltisExamples/Code_08a_ExcelAccess/TestPythonReadAccess.xlsx
+++ b/Python_WaltisExamples/Code_08a_ExcelAccess/TestPythonReadAccess.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>C6-Content</t>
+    <t>Rigth-Lower</t>
   </si>
   <si>
-    <t>Rigth-Lower</t>
+    <t>C6-Content!</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="C6:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,12 +376,12 @@
   <sheetData>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Python_WaltisExamples/Code_08a_ExcelAccess/TestPythonReadAccess.xlsx
+++ b/Python_WaltisExamples/Code_08a_ExcelAccess/TestPythonReadAccess.xlsx
@@ -4,24 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Set-Up" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="BZU" sheetId="2" r:id="rId1"/>
+    <sheet name="Uster" sheetId="3" r:id="rId2"/>
+    <sheet name="Set-Up" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Rigth-Lower</t>
   </si>
   <si>
-    <t>C6-Content!</t>
+    <t>C6-Content!!!!</t>
+  </si>
+  <si>
+    <t>aaaaaa</t>
   </si>
 </sst>
 </file>
@@ -363,15 +366,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:E11"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
@@ -384,31 +416,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Python_WaltisExamples/Code_08a_ExcelAccess/TestPythonReadAccess.xlsx
+++ b/Python_WaltisExamples/Code_08a_ExcelAccess/TestPythonReadAccess.xlsx
@@ -21,10 +21,10 @@
     <t>Rigth-Lower</t>
   </si>
   <si>
-    <t>C6-Content!!!!</t>
+    <t>aaaaaa</t>
   </si>
   <si>
-    <t>aaaaaa</t>
+    <t>C6-Content</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="C6:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,7 +408,7 @@
   <sheetData>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
@@ -418,7 +418,7 @@
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
